--- a/patd202304.xlsx
+++ b/patd202304.xlsx
@@ -5874,7 +5874,7 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
